--- a/Code/Results/Cases/Case_3_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.588710148084687</v>
+        <v>1.334194987640927</v>
       </c>
       <c r="C2">
-        <v>0.1232831715726377</v>
+        <v>0.06156237666765207</v>
       </c>
       <c r="D2">
-        <v>0.08168126270331655</v>
+        <v>0.1444367476148454</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.953493269153384</v>
+        <v>2.4946464669882</v>
       </c>
       <c r="G2">
-        <v>0.0008391364293991455</v>
+        <v>0.002573306288984005</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.383128337866879</v>
+        <v>0.8524937038761777</v>
       </c>
       <c r="L2">
-        <v>0.1873944312207954</v>
+        <v>0.2456154873396983</v>
       </c>
       <c r="M2">
-        <v>0.3217421983708419</v>
+        <v>0.3123384522624235</v>
       </c>
       <c r="N2">
-        <v>2.287897049614415</v>
+        <v>3.623824324771647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.399075328038833</v>
+        <v>1.292403242238777</v>
       </c>
       <c r="C3">
-        <v>0.1096714638574383</v>
+        <v>0.05725434632145721</v>
       </c>
       <c r="D3">
-        <v>0.0837774846869781</v>
+        <v>0.1447525391802849</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.829566566188305</v>
+        <v>2.470508568680785</v>
       </c>
       <c r="G3">
-        <v>0.0008459041926388597</v>
+        <v>0.002577554362360618</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.204037823650481</v>
+        <v>0.809715614828292</v>
       </c>
       <c r="L3">
-        <v>0.1705478787164907</v>
+        <v>0.2426147386426294</v>
       </c>
       <c r="M3">
-        <v>0.2857229208067835</v>
+        <v>0.3047791175884456</v>
       </c>
       <c r="N3">
-        <v>2.282556171036703</v>
+        <v>3.625189172712837</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.284685832204417</v>
+        <v>1.26754056097576</v>
       </c>
       <c r="C4">
-        <v>0.1013715355852156</v>
+        <v>0.05458010522372092</v>
       </c>
       <c r="D4">
-        <v>0.08507627763094217</v>
+        <v>0.1449490708373498</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.756274265673511</v>
+        <v>2.456721591296727</v>
       </c>
       <c r="G4">
-        <v>0.0008501844737912421</v>
+        <v>0.002580301329484256</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.095763773349006</v>
+        <v>0.7839862365261467</v>
       </c>
       <c r="L4">
-        <v>0.1604590126867862</v>
+        <v>0.2408924343735919</v>
       </c>
       <c r="M4">
-        <v>0.2640338681973162</v>
+        <v>0.3003153948930866</v>
       </c>
       <c r="N4">
-        <v>2.28133838945827</v>
+        <v>3.626779827217547</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.238533985773699</v>
+        <v>1.257609308934917</v>
       </c>
       <c r="C5">
-        <v>0.09799990415520199</v>
+        <v>0.05348293875961474</v>
       </c>
       <c r="D5">
-        <v>0.08560863616656533</v>
+        <v>0.1450298222792457</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.727059245033317</v>
+        <v>2.451362999343417</v>
       </c>
       <c r="G5">
-        <v>0.0008519610662640954</v>
+        <v>0.002581455713847782</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.052016894848094</v>
+        <v>0.7736359864404108</v>
       </c>
       <c r="L5">
-        <v>0.156406815254087</v>
+        <v>0.2402208102672887</v>
       </c>
       <c r="M5">
-        <v>0.2552926923144341</v>
+        <v>0.2985410813364702</v>
       </c>
       <c r="N5">
-        <v>2.281335567393754</v>
+        <v>3.627617115228119</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.230897006980172</v>
+        <v>1.255972339370544</v>
       </c>
       <c r="C6">
-        <v>0.09744058356434948</v>
+        <v>0.05330030646504014</v>
       </c>
       <c r="D6">
-        <v>0.0856972247928196</v>
+        <v>0.1450432710737326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.722246058789267</v>
+        <v>2.450488888381415</v>
       </c>
       <c r="G6">
-        <v>0.0008522580483042245</v>
+        <v>0.002581649514095741</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.044774084181199</v>
+        <v>0.7719254629196257</v>
       </c>
       <c r="L6">
-        <v>0.1557373797561254</v>
+        <v>0.240111113713418</v>
       </c>
       <c r="M6">
-        <v>0.2538468212737008</v>
+        <v>0.2982491569879322</v>
       </c>
       <c r="N6">
-        <v>2.281364204306144</v>
+        <v>3.62776756147403</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.284061604494013</v>
+        <v>1.267405812947771</v>
       </c>
       <c r="C7">
-        <v>0.101326026328536</v>
+        <v>0.05456533847974754</v>
       </c>
       <c r="D7">
-        <v>0.08508344449971883</v>
+        <v>0.144950157193966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.755877686771157</v>
+        <v>2.456648272212064</v>
       </c>
       <c r="G7">
-        <v>0.0008502083013834481</v>
+        <v>0.002580316756095214</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.095172328681883</v>
+        <v>0.7838461044268854</v>
       </c>
       <c r="L7">
-        <v>0.1604041304478727</v>
+        <v>0.2408832542034958</v>
       </c>
       <c r="M7">
-        <v>0.2639156005347338</v>
+        <v>0.3002912849377779</v>
       </c>
       <c r="N7">
-        <v>2.281336385211517</v>
+        <v>3.62679035383384</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.52286675697647</v>
+        <v>1.319619583716047</v>
       </c>
       <c r="C8">
-        <v>0.1185754612888275</v>
+        <v>0.06008295933936836</v>
       </c>
       <c r="D8">
-        <v>0.08240169979516221</v>
+        <v>0.1445450862804316</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.910150097850845</v>
+        <v>2.486108997047111</v>
       </c>
       <c r="G8">
-        <v>0.0008414446326573893</v>
+        <v>0.002574742318994039</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.320997016316625</v>
+        <v>0.8376322997603154</v>
       </c>
       <c r="L8">
-        <v>0.1815296860143363</v>
+        <v>0.2445558937129064</v>
       </c>
       <c r="M8">
-        <v>0.3092278584432222</v>
+        <v>0.3096950976359878</v>
       </c>
       <c r="N8">
-        <v>2.285612058746921</v>
+        <v>3.624138607492696</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.009962487035807</v>
+        <v>1.428350310935571</v>
       </c>
       <c r="C9">
-        <v>0.153050462030123</v>
+        <v>0.07067599903658106</v>
       </c>
       <c r="D9">
-        <v>0.07722888967603225</v>
+        <v>0.1437715868951912</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.237427713522635</v>
+        <v>2.552100670014823</v>
       </c>
       <c r="G9">
-        <v>0.0008252034404272266</v>
+        <v>0.002564905727706845</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.779640561327625</v>
+        <v>0.9473815945879664</v>
       </c>
       <c r="L9">
-        <v>0.2252264320704427</v>
+        <v>0.2527115950446444</v>
       </c>
       <c r="M9">
-        <v>0.401967618694222</v>
+        <v>0.3295478802170422</v>
       </c>
       <c r="N9">
-        <v>2.311578179029681</v>
+        <v>3.624919874166864</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.38320443982235</v>
+        <v>1.512125615329865</v>
       </c>
       <c r="C10">
-        <v>0.1790692610211551</v>
+        <v>0.07832624753439177</v>
       </c>
       <c r="D10">
-        <v>0.07347132477410767</v>
+        <v>0.1432158866400073</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.496846415954224</v>
+        <v>2.605626733371764</v>
       </c>
       <c r="G10">
-        <v>0.0008137766555610705</v>
+        <v>0.002558339053056303</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.129924723465052</v>
+        <v>1.030654472356673</v>
       </c>
       <c r="L10">
-        <v>0.2590896644174165</v>
+        <v>0.2592862758090035</v>
       </c>
       <c r="M10">
-        <v>0.4732270291512961</v>
+        <v>0.3449988654262626</v>
       </c>
       <c r="N10">
-        <v>2.343242708607903</v>
+        <v>3.629156011125261</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.557312224288864</v>
+        <v>1.551088410891509</v>
       </c>
       <c r="C11">
-        <v>0.1911298295291175</v>
+        <v>0.08177909456821908</v>
       </c>
       <c r="D11">
-        <v>0.07176917132587946</v>
+        <v>0.1429657934685302</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.619946845387361</v>
+        <v>2.631079304972161</v>
       </c>
       <c r="G11">
-        <v>0.0008086709076080037</v>
+        <v>0.002555493542092274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.293087674739894</v>
+        <v>1.069118753921089</v>
       </c>
       <c r="L11">
-        <v>0.2749698514170404</v>
+        <v>0.2624041526987639</v>
       </c>
       <c r="M11">
-        <v>0.5065108090422257</v>
+        <v>0.3522168759896971</v>
       </c>
       <c r="N11">
-        <v>2.360847918864749</v>
+        <v>3.631881975558429</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.623953308953674</v>
+        <v>1.565965570613969</v>
       </c>
       <c r="C12">
-        <v>0.1957360878562184</v>
+        <v>0.08308276592853758</v>
       </c>
       <c r="D12">
-        <v>0.07112548447151745</v>
+        <v>0.1428714769913553</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.667383439061979</v>
+        <v>2.640876628091291</v>
       </c>
       <c r="G12">
-        <v>0.0008067491989962594</v>
+        <v>0.002554436281153656</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.35550724298534</v>
+        <v>1.083768467189799</v>
       </c>
       <c r="L12">
-        <v>0.2810602331686596</v>
+        <v>0.2636030868738146</v>
       </c>
       <c r="M12">
-        <v>0.5192566299951125</v>
+        <v>0.3549774153447203</v>
       </c>
       <c r="N12">
-        <v>2.368018629279533</v>
+        <v>3.633029373194518</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.609567848672555</v>
+        <v>1.562756044509229</v>
       </c>
       <c r="C13">
-        <v>0.1947421866956063</v>
+        <v>0.08280216683101571</v>
       </c>
       <c r="D13">
-        <v>0.07126407710142058</v>
+        <v>0.1428917724497047</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.657129077600729</v>
+        <v>2.638759522889558</v>
       </c>
       <c r="G13">
-        <v>0.0008071625781908703</v>
+        <v>0.002554663081234535</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.342034465758417</v>
+        <v>1.080609643238716</v>
       </c>
       <c r="L13">
-        <v>0.2797449957452471</v>
+        <v>0.2633440627969748</v>
       </c>
       <c r="M13">
-        <v>0.5165049815586329</v>
+        <v>0.3543816722102875</v>
       </c>
       <c r="N13">
-        <v>2.366451126334454</v>
+        <v>3.632777135934134</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.56278004736356</v>
+        <v>1.552309901982596</v>
       </c>
       <c r="C14">
-        <v>0.1915079615575905</v>
+        <v>0.08188642504846655</v>
       </c>
       <c r="D14">
-        <v>0.07171619800144136</v>
+        <v>0.1429580262078254</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.623832481039159</v>
+        <v>2.631882148375013</v>
       </c>
       <c r="G14">
-        <v>0.0008085125817678414</v>
+        <v>0.002555406154921404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.298209762526767</v>
+        <v>1.070322307006705</v>
       </c>
       <c r="L14">
-        <v>0.2754693178434167</v>
+        <v>0.2625024237585052</v>
       </c>
       <c r="M14">
-        <v>0.5075564649768296</v>
+        <v>0.3524434412818636</v>
       </c>
       <c r="N14">
-        <v>2.361427489451415</v>
+        <v>3.631974063749084</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.534216471543516</v>
+        <v>1.545927333709983</v>
       </c>
       <c r="C15">
-        <v>0.1895322262179349</v>
+        <v>0.08132500808957843</v>
       </c>
       <c r="D15">
-        <v>0.07199324551485908</v>
+        <v>0.1429986591426857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.603547098584897</v>
+        <v>2.627690272689762</v>
       </c>
       <c r="G15">
-        <v>0.0008093409766639754</v>
+        <v>0.002555863945896037</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.271450997980935</v>
+        <v>1.06403198061733</v>
       </c>
       <c r="L15">
-        <v>0.2728606232132478</v>
+        <v>0.2619892736829712</v>
       </c>
       <c r="M15">
-        <v>0.5020942711569134</v>
+        <v>0.3512597662629631</v>
       </c>
       <c r="N15">
-        <v>2.358417379811897</v>
+        <v>3.631497160187024</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.371920405377125</v>
+        <v>1.509596480767129</v>
       </c>
       <c r="C16">
-        <v>0.1782861642850548</v>
+        <v>0.0781000533270344</v>
       </c>
       <c r="D16">
-        <v>0.07358269603164924</v>
+        <v>0.1432322851365422</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.488911349748449</v>
+        <v>2.603985577491414</v>
       </c>
       <c r="G16">
-        <v>0.0008141120572258268</v>
+        <v>0.002558527856400918</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.119345466231124</v>
+        <v>1.028152497428152</v>
       </c>
       <c r="L16">
-        <v>0.2580621356927537</v>
+        <v>0.2590850708883039</v>
       </c>
       <c r="M16">
-        <v>0.4710707456458749</v>
+        <v>0.3445309616908006</v>
       </c>
       <c r="N16">
-        <v>2.342160208945955</v>
+        <v>3.628993960581084</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.273523718064155</v>
+        <v>1.487527244458988</v>
       </c>
       <c r="C17">
-        <v>0.1714492386808786</v>
+        <v>0.07611471345759924</v>
       </c>
       <c r="D17">
-        <v>0.07455950336477901</v>
+        <v>0.1433762983263742</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.419950249237388</v>
+        <v>2.589726330878577</v>
       </c>
       <c r="G17">
-        <v>0.0008170615561707334</v>
+        <v>0.002560198298176607</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.02706862250875</v>
+        <v>1.006291125984944</v>
       </c>
       <c r="L17">
-        <v>0.2491113543502905</v>
+        <v>0.2573359669547273</v>
       </c>
       <c r="M17">
-        <v>0.4522727272168154</v>
+        <v>0.3404515489017541</v>
       </c>
       <c r="N17">
-        <v>2.333036458696654</v>
+        <v>3.627663128622984</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.21732913030894</v>
+        <v>1.474913882259045</v>
       </c>
       <c r="C18">
-        <v>0.1675374933232803</v>
+        <v>0.07497022522419172</v>
       </c>
       <c r="D18">
-        <v>0.0751220219560027</v>
+        <v>0.1434593847840704</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.380758840222228</v>
+        <v>2.581628616520604</v>
       </c>
       <c r="G18">
-        <v>0.0008187668241557484</v>
+        <v>0.002561172436246586</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.974347143676681</v>
+        <v>0.9937719035904991</v>
       </c>
       <c r="L18">
-        <v>0.244007313944536</v>
+        <v>0.2563418846869467</v>
       </c>
       <c r="M18">
-        <v>0.4415411293407914</v>
+        <v>0.338122993363541</v>
       </c>
       <c r="N18">
-        <v>2.328087122332406</v>
+        <v>3.626972852647398</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.198368835014719</v>
+        <v>1.470656998492927</v>
       </c>
       <c r="C19">
-        <v>0.166216396298438</v>
+        <v>0.07458227686636576</v>
       </c>
       <c r="D19">
-        <v>0.07531260336548851</v>
+        <v>0.1434875600231607</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.3675680019672</v>
+        <v>2.57890469192057</v>
       </c>
       <c r="G19">
-        <v>0.0008193457539303864</v>
+        <v>0.00256150455743459</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.956554876733236</v>
+        <v>0.9895425237098436</v>
       </c>
       <c r="L19">
-        <v>0.242286521459377</v>
+        <v>0.2560073590995415</v>
       </c>
       <c r="M19">
-        <v>0.4379209280733463</v>
+        <v>0.337337643677742</v>
       </c>
       <c r="N19">
-        <v>2.326461355089094</v>
+        <v>3.62675204233021</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.283956136559652</v>
+        <v>1.489868242837531</v>
       </c>
       <c r="C20">
-        <v>0.1721748539088281</v>
+        <v>0.07632632203663547</v>
       </c>
       <c r="D20">
-        <v>0.07445545078247928</v>
+        <v>0.1433609415990968</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.427241685173541</v>
+        <v>2.591233503943158</v>
       </c>
       <c r="G20">
-        <v>0.0008167466775012793</v>
+        <v>0.002560019096449183</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.036854457425392</v>
+        <v>1.008612626424963</v>
       </c>
       <c r="L20">
-        <v>0.2500595455662733</v>
+        <v>0.257520924677948</v>
       </c>
       <c r="M20">
-        <v>0.454265355063896</v>
+        <v>0.3408839654747808</v>
       </c>
       <c r="N20">
-        <v>2.333976511789515</v>
+        <v>3.627797015013257</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.576502724940383</v>
+        <v>1.555374853528008</v>
       </c>
       <c r="C21">
-        <v>0.1924568095579247</v>
+        <v>0.08215550439329888</v>
       </c>
       <c r="D21">
-        <v>0.07158337638873036</v>
+        <v>0.1429385553290743</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.633589455238294</v>
+        <v>2.633897882430688</v>
       </c>
       <c r="G21">
-        <v>0.0008081157479688662</v>
+        <v>0.002555187346819614</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.311064235430138</v>
+        <v>1.073341661601091</v>
       </c>
       <c r="L21">
-        <v>0.2767230290236569</v>
+        <v>0.2627491379491289</v>
       </c>
       <c r="M21">
-        <v>0.5101808618903405</v>
+        <v>0.3530120073833629</v>
       </c>
       <c r="N21">
-        <v>2.362889003190446</v>
+        <v>3.632206818797215</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.771887052959642</v>
+        <v>1.598903020217278</v>
       </c>
       <c r="C22">
-        <v>0.2059444166968518</v>
+        <v>0.08594282565691458</v>
       </c>
       <c r="D22">
-        <v>0.06971138211717953</v>
+        <v>0.1426647655778224</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.773284250841442</v>
+        <v>2.662708376083884</v>
       </c>
       <c r="G22">
-        <v>0.0008025424581435374</v>
+        <v>0.002552147634677778</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.494013349724753</v>
+        <v>1.116136307894948</v>
       </c>
       <c r="L22">
-        <v>0.2946019692232653</v>
+        <v>0.2662725205194931</v>
       </c>
       <c r="M22">
-        <v>0.5475617391615799</v>
+        <v>0.3610971417259918</v>
       </c>
       <c r="N22">
-        <v>2.384746469933674</v>
+        <v>3.635760089098653</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.667191543327192</v>
+        <v>1.575605674899748</v>
       </c>
       <c r="C23">
-        <v>0.198722091826923</v>
+        <v>0.08392348373072878</v>
       </c>
       <c r="D23">
-        <v>0.07071008537277734</v>
+        <v>0.1428106849642408</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.698252141082833</v>
+        <v>2.64724675384258</v>
       </c>
       <c r="G23">
-        <v>0.0008055114035781352</v>
+        <v>0.002553759212687409</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.3959977325149</v>
+        <v>1.093251024777487</v>
       </c>
       <c r="L23">
-        <v>0.285015171442538</v>
+        <v>0.2643822864077379</v>
       </c>
       <c r="M23">
-        <v>0.5275281211979745</v>
+        <v>0.3567674209329752</v>
       </c>
       <c r="N23">
-        <v>2.372794050506371</v>
+        <v>3.633802142573444</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.279238478818115</v>
+        <v>1.488809645314291</v>
       </c>
       <c r="C24">
-        <v>0.1718467449243235</v>
+        <v>0.0762306634301666</v>
       </c>
       <c r="D24">
-        <v>0.07450249001876408</v>
+        <v>0.1433678834667917</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.423943815627638</v>
+        <v>2.59055179916929</v>
       </c>
       <c r="G24">
-        <v>0.0008168890042526966</v>
+        <v>0.002560100070689852</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.032429260764133</v>
+        <v>1.007562922938547</v>
       </c>
       <c r="L24">
-        <v>0.2496307384934653</v>
+        <v>0.2574372694684115</v>
       </c>
       <c r="M24">
-        <v>0.4533642537135307</v>
+        <v>0.3406884177602123</v>
       </c>
       <c r="N24">
-        <v>2.333550594969211</v>
+        <v>3.627736251871866</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.875795073127733</v>
+        <v>1.398254402680124</v>
       </c>
       <c r="C25">
-        <v>0.1436259485987392</v>
+        <v>0.06783399152043046</v>
       </c>
       <c r="D25">
-        <v>0.07862004600129957</v>
+        <v>0.1439786202281148</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.145861724160795</v>
+        <v>2.533365035273874</v>
       </c>
       <c r="G25">
-        <v>0.0008295029027859391</v>
+        <v>0.00256745031942546</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.653513522845344</v>
+        <v>0.9172303645421778</v>
       </c>
       <c r="L25">
-        <v>0.2131255363890006</v>
+        <v>0.2504030330087659</v>
       </c>
       <c r="M25">
-        <v>0.3763893869233002</v>
+        <v>0.3240255706948645</v>
       </c>
       <c r="N25">
-        <v>2.302489170181701</v>
+        <v>3.62406656566759</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_153/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_153/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.334194987640927</v>
+        <v>1.588710148084601</v>
       </c>
       <c r="C2">
-        <v>0.06156237666765207</v>
+        <v>0.1232831715725382</v>
       </c>
       <c r="D2">
-        <v>0.1444367476148454</v>
+        <v>0.08168126270322595</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.4946464669882</v>
+        <v>1.953493269153384</v>
       </c>
       <c r="G2">
-        <v>0.002573306288984005</v>
+        <v>0.0008391364294008108</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8524937038761777</v>
+        <v>1.383128337866822</v>
       </c>
       <c r="L2">
-        <v>0.2456154873396983</v>
+        <v>0.1873944312208238</v>
       </c>
       <c r="M2">
-        <v>0.3123384522624235</v>
+        <v>0.3217421983708419</v>
       </c>
       <c r="N2">
-        <v>3.623824324771647</v>
+        <v>2.287897049614458</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.292403242238777</v>
+        <v>1.399075328038776</v>
       </c>
       <c r="C3">
-        <v>0.05725434632145721</v>
+        <v>0.1096714638575804</v>
       </c>
       <c r="D3">
-        <v>0.1447525391802849</v>
+        <v>0.08377748468695412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.470508568680785</v>
+        <v>1.829566566188291</v>
       </c>
       <c r="G3">
-        <v>0.002577554362360618</v>
+        <v>0.0008459041926415363</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.809715614828292</v>
+        <v>1.204037823650509</v>
       </c>
       <c r="L3">
-        <v>0.2426147386426294</v>
+        <v>0.1705478787164623</v>
       </c>
       <c r="M3">
-        <v>0.3047791175884456</v>
+        <v>0.2857229208067622</v>
       </c>
       <c r="N3">
-        <v>3.625189172712837</v>
+        <v>2.282556171036674</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.26754056097576</v>
+        <v>1.284685832204559</v>
       </c>
       <c r="C4">
-        <v>0.05458010522372092</v>
+        <v>0.1013715355853719</v>
       </c>
       <c r="D4">
-        <v>0.1449490708373498</v>
+        <v>0.085076277631015</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.456721591296727</v>
+        <v>1.756274265673511</v>
       </c>
       <c r="G4">
-        <v>0.002580301329484256</v>
+        <v>0.0008501844737895517</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7839862365261467</v>
+        <v>1.09576377334912</v>
       </c>
       <c r="L4">
-        <v>0.2408924343735919</v>
+        <v>0.160459012686772</v>
       </c>
       <c r="M4">
-        <v>0.3003153948930866</v>
+        <v>0.2640338681973056</v>
       </c>
       <c r="N4">
-        <v>3.626779827217547</v>
+        <v>2.281338389458242</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.257609308934917</v>
+        <v>1.238533985773728</v>
       </c>
       <c r="C5">
-        <v>0.05348293875961474</v>
+        <v>0.09799990415531568</v>
       </c>
       <c r="D5">
-        <v>0.1450298222792457</v>
+        <v>0.08560863616644454</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.451362999343417</v>
+        <v>1.727059245033317</v>
       </c>
       <c r="G5">
-        <v>0.002581455713847782</v>
+        <v>0.0008519610662630833</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7736359864404108</v>
+        <v>1.052016894848123</v>
       </c>
       <c r="L5">
-        <v>0.2402208102672887</v>
+        <v>0.1564068152540159</v>
       </c>
       <c r="M5">
-        <v>0.2985410813364702</v>
+        <v>0.2552926923144412</v>
       </c>
       <c r="N5">
-        <v>3.627617115228119</v>
+        <v>2.281335567393754</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.255972339370544</v>
+        <v>1.230897006980086</v>
       </c>
       <c r="C6">
-        <v>0.05330030646504014</v>
+        <v>0.09744058356452001</v>
       </c>
       <c r="D6">
-        <v>0.1450432710737326</v>
+        <v>0.0856972247927934</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.450488888381415</v>
+        <v>1.722246058789267</v>
       </c>
       <c r="G6">
-        <v>0.002581649514095741</v>
+        <v>0.0008522580482743182</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7719254629196257</v>
+        <v>1.044774084181171</v>
       </c>
       <c r="L6">
-        <v>0.240111113713418</v>
+        <v>0.1557373797561183</v>
       </c>
       <c r="M6">
-        <v>0.2982491569879322</v>
+        <v>0.2538468212737008</v>
       </c>
       <c r="N6">
-        <v>3.62776756147403</v>
+        <v>2.281364204306144</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.267405812947771</v>
+        <v>1.284061604494013</v>
       </c>
       <c r="C7">
-        <v>0.05456533847974754</v>
+        <v>0.1013260263286639</v>
       </c>
       <c r="D7">
-        <v>0.144950157193966</v>
+        <v>0.08508344449992755</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.456648272212064</v>
+        <v>1.755877686771171</v>
       </c>
       <c r="G7">
-        <v>0.002580316756095214</v>
+        <v>0.0008502083013101387</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7838461044268854</v>
+        <v>1.09517232868194</v>
       </c>
       <c r="L7">
-        <v>0.2408832542034958</v>
+        <v>0.1604041304478727</v>
       </c>
       <c r="M7">
-        <v>0.3002912849377779</v>
+        <v>0.2639156005347409</v>
       </c>
       <c r="N7">
-        <v>3.62679035383384</v>
+        <v>2.281336385211517</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.319619583716047</v>
+        <v>1.522866756976612</v>
       </c>
       <c r="C8">
-        <v>0.06008295933936836</v>
+        <v>0.1185754612886996</v>
       </c>
       <c r="D8">
-        <v>0.1445450862804316</v>
+        <v>0.08240169979528389</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.486108997047111</v>
+        <v>1.91015009785086</v>
       </c>
       <c r="G8">
-        <v>0.002574742318994039</v>
+        <v>0.0008414446326582835</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8376322997603154</v>
+        <v>1.320997016316539</v>
       </c>
       <c r="L8">
-        <v>0.2445558937129064</v>
+        <v>0.1815296860143576</v>
       </c>
       <c r="M8">
-        <v>0.3096950976359878</v>
+        <v>0.3092278584432364</v>
       </c>
       <c r="N8">
-        <v>3.624138607492696</v>
+        <v>2.285612058746878</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.428350310935571</v>
+        <v>2.009962487035864</v>
       </c>
       <c r="C9">
-        <v>0.07067599903658106</v>
+        <v>0.1530504620298956</v>
       </c>
       <c r="D9">
-        <v>0.1437715868951912</v>
+        <v>0.07722888967591679</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.552100670014823</v>
+        <v>2.237427713522607</v>
       </c>
       <c r="G9">
-        <v>0.002564905727706845</v>
+        <v>0.0008252034405903386</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9473815945879664</v>
+        <v>1.779640561327597</v>
       </c>
       <c r="L9">
-        <v>0.2527115950446444</v>
+        <v>0.2252264320704001</v>
       </c>
       <c r="M9">
-        <v>0.3295478802170422</v>
+        <v>0.4019676186942078</v>
       </c>
       <c r="N9">
-        <v>3.624919874166864</v>
+        <v>2.311578179029638</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.512125615329865</v>
+        <v>2.383204439822293</v>
       </c>
       <c r="C10">
-        <v>0.07832624753439177</v>
+        <v>0.1790692610213966</v>
       </c>
       <c r="D10">
-        <v>0.1432158866400073</v>
+        <v>0.07347132477398333</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.605626733371764</v>
+        <v>2.496846415954195</v>
       </c>
       <c r="G10">
-        <v>0.002558339053056303</v>
+        <v>0.00081377665555842</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.030654472356673</v>
+        <v>2.129924723464995</v>
       </c>
       <c r="L10">
-        <v>0.2592862758090035</v>
+        <v>0.259089664417516</v>
       </c>
       <c r="M10">
-        <v>0.3449988654262626</v>
+        <v>0.4732270291512961</v>
       </c>
       <c r="N10">
-        <v>3.629156011125261</v>
+        <v>2.343242708607875</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.551088410891509</v>
+        <v>2.557312224288921</v>
       </c>
       <c r="C11">
-        <v>0.08177909456821908</v>
+        <v>0.1911298295291033</v>
       </c>
       <c r="D11">
-        <v>0.1429657934685302</v>
+        <v>0.07176917132588567</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.631079304972161</v>
+        <v>2.619946845387361</v>
       </c>
       <c r="G11">
-        <v>0.002555493542092274</v>
+        <v>0.0008086709074912909</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.069118753921089</v>
+        <v>2.293087674739979</v>
       </c>
       <c r="L11">
-        <v>0.2624041526987639</v>
+        <v>0.2749698514169836</v>
       </c>
       <c r="M11">
-        <v>0.3522168759896971</v>
+        <v>0.5065108090422328</v>
       </c>
       <c r="N11">
-        <v>3.631881975558429</v>
+        <v>2.360847918864778</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.565965570613969</v>
+        <v>2.623953308953617</v>
       </c>
       <c r="C12">
-        <v>0.08308276592853758</v>
+        <v>0.1957360878557495</v>
       </c>
       <c r="D12">
-        <v>0.1428714769913553</v>
+        <v>0.0711254844714988</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.640876628091291</v>
+        <v>2.66738343906195</v>
       </c>
       <c r="G12">
-        <v>0.002554436281153656</v>
+        <v>0.0008067491990518087</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.083768467189799</v>
+        <v>2.355507242985254</v>
       </c>
       <c r="L12">
-        <v>0.2636030868738146</v>
+        <v>0.2810602331686596</v>
       </c>
       <c r="M12">
-        <v>0.3549774153447203</v>
+        <v>0.5192566299951196</v>
       </c>
       <c r="N12">
-        <v>3.633029373194518</v>
+        <v>2.368018629279504</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.562756044509229</v>
+        <v>2.60956784867227</v>
       </c>
       <c r="C13">
-        <v>0.08280216683101571</v>
+        <v>0.1947421866953931</v>
       </c>
       <c r="D13">
-        <v>0.1428917724497047</v>
+        <v>0.07126407710143123</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.638759522889558</v>
+        <v>2.657129077600729</v>
       </c>
       <c r="G13">
-        <v>0.002554663081234535</v>
+        <v>0.0008071625781340375</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.080609643238716</v>
+        <v>2.34203446575853</v>
       </c>
       <c r="L13">
-        <v>0.2633440627969748</v>
+        <v>0.2797449957452187</v>
       </c>
       <c r="M13">
-        <v>0.3543816722102875</v>
+        <v>0.51650498155864</v>
       </c>
       <c r="N13">
-        <v>3.632777135934134</v>
+        <v>2.366451126334482</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.552309901982596</v>
+        <v>2.562780047363674</v>
       </c>
       <c r="C14">
-        <v>0.08188642504846655</v>
+        <v>0.1915079615575763</v>
       </c>
       <c r="D14">
-        <v>0.1429580262078254</v>
+        <v>0.0717161980015355</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.631882148375013</v>
+        <v>2.623832481039159</v>
       </c>
       <c r="G14">
-        <v>0.002555406154921404</v>
+        <v>0.0008085125817062783</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.070322307006705</v>
+        <v>2.298209762526739</v>
       </c>
       <c r="L14">
-        <v>0.2625024237585052</v>
+        <v>0.2754693178434451</v>
       </c>
       <c r="M14">
-        <v>0.3524434412818636</v>
+        <v>0.5075564649768367</v>
       </c>
       <c r="N14">
-        <v>3.631974063749084</v>
+        <v>2.361427489451358</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.545927333709983</v>
+        <v>2.53421647154363</v>
       </c>
       <c r="C15">
-        <v>0.08132500808957843</v>
+        <v>0.1895322262181622</v>
       </c>
       <c r="D15">
-        <v>0.1429986591426857</v>
+        <v>0.07199324551475161</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.627690272689762</v>
+        <v>2.603547098584883</v>
       </c>
       <c r="G15">
-        <v>0.002555863945896037</v>
+        <v>0.0008093409766076328</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.06403198061733</v>
+        <v>2.271450997980821</v>
       </c>
       <c r="L15">
-        <v>0.2619892736829712</v>
+        <v>0.2728606232132336</v>
       </c>
       <c r="M15">
-        <v>0.3512597662629631</v>
+        <v>0.5020942711569205</v>
       </c>
       <c r="N15">
-        <v>3.631497160187024</v>
+        <v>2.358417379811925</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.509596480767129</v>
+        <v>2.371920405376898</v>
       </c>
       <c r="C16">
-        <v>0.0781000533270344</v>
+        <v>0.1782861642852964</v>
       </c>
       <c r="D16">
-        <v>0.1432322851365422</v>
+        <v>0.07358269603153822</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.603985577491414</v>
+        <v>2.488911349748435</v>
       </c>
       <c r="G16">
-        <v>0.002558527856400918</v>
+        <v>0.0008141120572861611</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.028152497428152</v>
+        <v>2.119345466231181</v>
       </c>
       <c r="L16">
-        <v>0.2590850708883039</v>
+        <v>0.2580621356927963</v>
       </c>
       <c r="M16">
-        <v>0.3445309616908006</v>
+        <v>0.4710707456458749</v>
       </c>
       <c r="N16">
-        <v>3.628993960581084</v>
+        <v>2.342160208945955</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.487527244458988</v>
+        <v>2.273523718064268</v>
       </c>
       <c r="C17">
-        <v>0.07611471345759924</v>
+        <v>0.1714492386810775</v>
       </c>
       <c r="D17">
-        <v>0.1433762983263742</v>
+        <v>0.07455950336487316</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.589726330878577</v>
+        <v>2.419950249237388</v>
       </c>
       <c r="G17">
-        <v>0.002560198298176607</v>
+        <v>0.0008170615561703272</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.006291125984944</v>
+        <v>2.02706862250875</v>
       </c>
       <c r="L17">
-        <v>0.2573359669547273</v>
+        <v>0.2491113543502621</v>
       </c>
       <c r="M17">
-        <v>0.3404515489017541</v>
+        <v>0.4522727272168154</v>
       </c>
       <c r="N17">
-        <v>3.627663128622984</v>
+        <v>2.333036458696611</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.474913882259045</v>
+        <v>2.217329130308997</v>
       </c>
       <c r="C18">
-        <v>0.07497022522419172</v>
+        <v>0.1675374933230671</v>
       </c>
       <c r="D18">
-        <v>0.1434593847840704</v>
+        <v>0.07512202195602047</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.581628616520604</v>
+        <v>2.380758840222228</v>
       </c>
       <c r="G18">
-        <v>0.002561172436246586</v>
+        <v>0.0008187668241007599</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9937719035904991</v>
+        <v>1.974347143676681</v>
       </c>
       <c r="L18">
-        <v>0.2563418846869467</v>
+        <v>0.2440073139444507</v>
       </c>
       <c r="M18">
-        <v>0.338122993363541</v>
+        <v>0.4415411293407985</v>
       </c>
       <c r="N18">
-        <v>3.626972852647398</v>
+        <v>2.328087122332406</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.470656998492927</v>
+        <v>2.198368835014776</v>
       </c>
       <c r="C19">
-        <v>0.07458227686636576</v>
+        <v>0.1662163962986796</v>
       </c>
       <c r="D19">
-        <v>0.1434875600231607</v>
+        <v>0.07531260336536238</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.57890469192057</v>
+        <v>2.367568001967214</v>
       </c>
       <c r="G19">
-        <v>0.00256150455743459</v>
+        <v>0.000819345753870045</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9895425237098436</v>
+        <v>1.956554876733179</v>
       </c>
       <c r="L19">
-        <v>0.2560073590995415</v>
+        <v>0.2422865214594196</v>
       </c>
       <c r="M19">
-        <v>0.337337643677742</v>
+        <v>0.4379209280733605</v>
       </c>
       <c r="N19">
-        <v>3.62675204233021</v>
+        <v>2.326461355089137</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.489868242837531</v>
+        <v>2.283956136559766</v>
       </c>
       <c r="C20">
-        <v>0.07632632203663547</v>
+        <v>0.1721748539090981</v>
       </c>
       <c r="D20">
-        <v>0.1433609415990968</v>
+        <v>0.07445545078249172</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.591233503943158</v>
+        <v>2.427241685173527</v>
       </c>
       <c r="G20">
-        <v>0.002560019096449183</v>
+        <v>0.0008167466775610148</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.008612626424963</v>
+        <v>2.036854457425335</v>
       </c>
       <c r="L20">
-        <v>0.257520924677948</v>
+        <v>0.2500595455663159</v>
       </c>
       <c r="M20">
-        <v>0.3408839654747808</v>
+        <v>0.454265355063896</v>
       </c>
       <c r="N20">
-        <v>3.627797015013257</v>
+        <v>2.333976511789501</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.555374853528008</v>
+        <v>2.57650272494061</v>
       </c>
       <c r="C21">
-        <v>0.08215550439329888</v>
+        <v>0.1924568095583936</v>
       </c>
       <c r="D21">
-        <v>0.1429385553290743</v>
+        <v>0.07158337638873924</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.633897882430688</v>
+        <v>2.63358945523828</v>
       </c>
       <c r="G21">
-        <v>0.002555187346819614</v>
+        <v>0.0008081157479696024</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.073341661601091</v>
+        <v>2.311064235430166</v>
       </c>
       <c r="L21">
-        <v>0.2627491379491289</v>
+        <v>0.2767230290236569</v>
       </c>
       <c r="M21">
-        <v>0.3530120073833629</v>
+        <v>0.5101808618903405</v>
       </c>
       <c r="N21">
-        <v>3.632206818797215</v>
+        <v>2.362889003190446</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.598903020217278</v>
+        <v>2.771887052959755</v>
       </c>
       <c r="C22">
-        <v>0.08594282565691458</v>
+        <v>0.2059444166968518</v>
       </c>
       <c r="D22">
-        <v>0.1426647655778224</v>
+        <v>0.0697113821170765</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.662708376083884</v>
+        <v>2.773284250841385</v>
       </c>
       <c r="G22">
-        <v>0.002552147634677778</v>
+        <v>0.0008025424582057625</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.116136307894948</v>
+        <v>2.49401334972481</v>
       </c>
       <c r="L22">
-        <v>0.2662725205194931</v>
+        <v>0.2946019692234074</v>
       </c>
       <c r="M22">
-        <v>0.3610971417259918</v>
+        <v>0.5475617391615657</v>
       </c>
       <c r="N22">
-        <v>3.635760089098653</v>
+        <v>2.384746469933674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.575605674899748</v>
+        <v>2.667191543327078</v>
       </c>
       <c r="C23">
-        <v>0.08392348373072878</v>
+        <v>0.1987220918273778</v>
       </c>
       <c r="D23">
-        <v>0.1428106849642408</v>
+        <v>0.07071008537265921</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.64724675384258</v>
+        <v>2.698252141082861</v>
       </c>
       <c r="G23">
-        <v>0.002553759212687409</v>
+        <v>0.0008055114036370319</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.093251024777487</v>
+        <v>2.395997732514871</v>
       </c>
       <c r="L23">
-        <v>0.2643822864077379</v>
+        <v>0.2850151714424811</v>
       </c>
       <c r="M23">
-        <v>0.3567674209329752</v>
+        <v>0.5275281211979888</v>
       </c>
       <c r="N23">
-        <v>3.633802142573444</v>
+        <v>2.372794050506371</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.488809645314291</v>
+        <v>2.279238478818229</v>
       </c>
       <c r="C24">
-        <v>0.0762306634301666</v>
+        <v>0.1718467449245367</v>
       </c>
       <c r="D24">
-        <v>0.1433678834667917</v>
+        <v>0.07450249001865217</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.59055179916929</v>
+        <v>2.423943815627624</v>
       </c>
       <c r="G24">
-        <v>0.002560100070689852</v>
+        <v>0.0008168890043081146</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.007562922938547</v>
+        <v>2.032429260764218</v>
       </c>
       <c r="L24">
-        <v>0.2574372694684115</v>
+        <v>0.249630738493579</v>
       </c>
       <c r="M24">
-        <v>0.3406884177602123</v>
+        <v>0.4533642537135236</v>
       </c>
       <c r="N24">
-        <v>3.627736251871866</v>
+        <v>2.333550594969211</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.398254402680124</v>
+        <v>1.875795073127733</v>
       </c>
       <c r="C25">
-        <v>0.06783399152043046</v>
+        <v>0.1436259485985261</v>
       </c>
       <c r="D25">
-        <v>0.1439786202281148</v>
+        <v>0.07862004600142569</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.533365035273874</v>
+        <v>2.14586172416081</v>
       </c>
       <c r="G25">
-        <v>0.00256745031942546</v>
+        <v>0.0008295029027869383</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9172303645421778</v>
+        <v>1.653513522845373</v>
       </c>
       <c r="L25">
-        <v>0.2504030330087659</v>
+        <v>0.2131255363889437</v>
       </c>
       <c r="M25">
-        <v>0.3240255706948645</v>
+        <v>0.3763893869233002</v>
       </c>
       <c r="N25">
-        <v>3.62406656566759</v>
+        <v>2.302489170181687</v>
       </c>
       <c r="O25">
         <v>0</v>
